--- a/doc/descriptions/Погрузка 06_11_2024.xlsx
+++ b/doc/descriptions/Погрузка 06_11_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC732A-7CC8-4573-8830-C30BBF44A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F011C-8900-4A78-9985-F016265C3816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>Ход операции зависит от местоположения вагонов – они должны быть на станции и на пути</t>
   </si>
@@ -667,6 +667,24 @@
   </si>
   <si>
     <t xml:space="preserve">Подача не закрыта время  документа и станция назн уз </t>
+  </si>
+  <si>
+    <t>Общий</t>
+  </si>
+  <si>
+    <t>Обшая+отдельно</t>
+  </si>
+  <si>
+    <t>Поле на вагон</t>
+  </si>
+  <si>
+    <t>Поле подачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в зависимости от вагонов в подаче </t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -942,7 +960,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,8 +1003,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1430,11 +1460,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1566,7 +1633,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1576,9 +1642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1703,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,51 +1782,120 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2598,1023 +2729,1228 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="76" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="76"/>
+    <col min="2" max="2" width="102.28515625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="8" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="76"/>
+    <col min="9" max="9" width="22.140625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="76" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="76" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+    </row>
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+    </row>
+    <row r="3" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+    </row>
+    <row r="5" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+    </row>
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+    </row>
+    <row r="12" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="75" t="s">
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+    </row>
+    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-    </row>
-    <row r="15" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77" t="s">
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+    </row>
+    <row r="15" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+    </row>
+    <row r="16" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110">
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="167"/>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="108">
         <v>1</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B18" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111">
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="183"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="108"/>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="165">
         <v>188</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C19" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="111">
+      <c r="D19" s="109">
         <v>1237</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E19" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111">
+      <c r="F19" s="109">
         <v>1238</v>
       </c>
-      <c r="H18" s="111" t="s">
+      <c r="G19" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110" t="s">
+      <c r="H19" s="108"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="108"/>
+    </row>
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110" t="s">
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="108"/>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-    </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="108"/>
+    </row>
     <row r="22" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112">
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="110">
         <v>2</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B23" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="110"/>
+      <c r="P23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114">
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="112">
         <v>3</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B25" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="112">
         <v>4</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B26" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114" t="s">
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
+      <c r="B27" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="116" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
+      <c r="B28" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="116" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="112"/>
+      <c r="B29" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110">
+      <c r="B30" s="82"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="108">
         <v>5</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B31" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="110" t="s">
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="110" t="s">
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-    </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="108"/>
+      <c r="B34" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-    </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-    </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="110">
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="108">
         <v>6</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B36" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-    </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="110" t="s">
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="108"/>
+      <c r="B37" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-    </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="110"/>
-      <c r="B37" s="110" t="s">
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+    </row>
+    <row r="38" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="108"/>
+      <c r="B38" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-    </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="118">
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+    </row>
+    <row r="39" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+    </row>
+    <row r="40" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="116">
         <v>7</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="B40" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-    </row>
-    <row r="40" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
-      <c r="B40" s="120" t="s">
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+    </row>
+    <row r="41" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="116"/>
+      <c r="B41" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-    </row>
-    <row r="41" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
-      <c r="B41" s="120" t="s">
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+    </row>
+    <row r="42" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="116"/>
+      <c r="B42" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
-    </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="83"/>
-    </row>
-    <row r="44" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114">
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+    </row>
+    <row r="43" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+    </row>
+    <row r="44" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="82"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="167"/>
+    </row>
+    <row r="45" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="112">
         <v>8</v>
       </c>
-      <c r="B44" s="115" t="s">
+      <c r="B45" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-    </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114" t="s">
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+    </row>
+    <row r="46" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="112"/>
+      <c r="B46" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-    </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="116" t="s">
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="184"/>
+      <c r="J46" s="184"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+    </row>
+    <row r="47" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="112"/>
+      <c r="B47" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-    </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="83"/>
-    </row>
-    <row r="48" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="121">
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+    </row>
+    <row r="48" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="82"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="167"/>
+      <c r="L48" s="167"/>
+    </row>
+    <row r="49" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="186">
         <v>9</v>
       </c>
-      <c r="B48" s="121" t="s">
+      <c r="B49" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="112"/>
-    </row>
-    <row r="49" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="112" t="s">
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="188" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49" s="188"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+    </row>
+    <row r="50" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="186"/>
+      <c r="B50" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112"/>
-    </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="112" t="s">
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="188"/>
+      <c r="L50" s="188"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+    </row>
+    <row r="51" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="186"/>
+      <c r="B51" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-    </row>
-    <row r="51" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
-      <c r="B51" s="104"/>
-    </row>
-    <row r="52" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
+      <c r="O51" s="110"/>
+    </row>
+    <row r="52" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="167"/>
+      <c r="K52" s="167"/>
+      <c r="L52" s="167"/>
+    </row>
+    <row r="53" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
+      <c r="I53" s="167"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="167"/>
+      <c r="L53" s="167"/>
+    </row>
+    <row r="54" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+    </row>
+    <row r="55" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+    </row>
+    <row r="56" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+      <c r="I56" s="167"/>
+      <c r="J56" s="167"/>
+      <c r="K56" s="167"/>
+      <c r="L56" s="167"/>
+    </row>
+    <row r="57" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="I57" s="167"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="167"/>
+    </row>
+    <row r="58" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="167"/>
+    </row>
+    <row r="59" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
+    </row>
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="77" t="s">
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+    </row>
+    <row r="61" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="77" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
+    </row>
+    <row r="62" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-    </row>
-    <row r="62" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J62" s="80"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="79"/>
-    </row>
-    <row r="63" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+      <c r="I63" s="174"/>
+      <c r="J63" s="175"/>
+      <c r="K63" s="174"/>
+      <c r="L63" s="174"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="79"/>
+    </row>
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="79"/>
-    </row>
-    <row r="64" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
+      <c r="I64" s="174"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="174"/>
+      <c r="L64" s="174"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="79"/>
+    </row>
+    <row r="65" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="80"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="79"/>
-    </row>
-    <row r="65" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
+      <c r="I65" s="174"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="79"/>
+    </row>
+    <row r="66" spans="2:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J65" s="80"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="79"/>
-    </row>
-    <row r="66" spans="2:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="78" t="s">
+      <c r="I66" s="174"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="174"/>
+      <c r="L66" s="174"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="79"/>
+    </row>
+    <row r="67" spans="2:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="79"/>
-    </row>
-    <row r="67" spans="2:15" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J67" s="80"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="79"/>
-    </row>
-    <row r="68" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="84" t="s">
+      <c r="I67" s="174"/>
+      <c r="J67" s="175"/>
+      <c r="K67" s="174"/>
+      <c r="L67" s="174"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="79"/>
+    </row>
+    <row r="68" spans="2:14" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="174"/>
+      <c r="J68" s="175"/>
+      <c r="K68" s="174"/>
+      <c r="L68" s="174"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="79"/>
+    </row>
+    <row r="69" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="82"/>
-    </row>
-    <row r="69" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="174"/>
+      <c r="J69" s="174"/>
+      <c r="K69" s="174"/>
+      <c r="L69" s="174"/>
+      <c r="M69" s="81"/>
+    </row>
+    <row r="70" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="82"/>
-    </row>
-    <row r="70" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+      <c r="I70" s="174"/>
+      <c r="J70" s="174"/>
+      <c r="K70" s="174"/>
+      <c r="L70" s="174"/>
+      <c r="M70" s="81"/>
+    </row>
+    <row r="71" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="82"/>
-    </row>
-    <row r="71" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
+      <c r="I71" s="174"/>
+      <c r="J71" s="174"/>
+      <c r="K71" s="174"/>
+      <c r="L71" s="174"/>
+      <c r="M71" s="81"/>
+    </row>
+    <row r="72" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="82"/>
-    </row>
-    <row r="72" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
+      <c r="I72" s="174"/>
+      <c r="J72" s="174"/>
+      <c r="K72" s="174"/>
+      <c r="L72" s="174"/>
+      <c r="M72" s="81"/>
+    </row>
+    <row r="73" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="2:15" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J73" s="80"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="79"/>
-    </row>
-    <row r="74" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="77" t="s">
+      <c r="I73" s="174"/>
+      <c r="J73" s="167"/>
+      <c r="K73" s="167"/>
+      <c r="L73" s="167"/>
+      <c r="M73"/>
+    </row>
+    <row r="74" spans="2:14" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="174"/>
+      <c r="J74" s="175"/>
+      <c r="K74" s="174"/>
+      <c r="L74" s="174"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="79"/>
+    </row>
+    <row r="75" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="J74" s="17"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="2:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B75" s="4" t="s">
+      <c r="I75" s="174"/>
+      <c r="J75" s="174"/>
+      <c r="K75" s="174"/>
+      <c r="L75" s="174"/>
+      <c r="M75"/>
+    </row>
+    <row r="76" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
+      <c r="I76" s="174"/>
+      <c r="J76" s="176"/>
+      <c r="K76" s="174"/>
+      <c r="L76" s="174"/>
+      <c r="M76"/>
+    </row>
+    <row r="77" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="151"/>
-      <c r="L76" s="151"/>
-      <c r="M76" s="151"/>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="I77" s="174"/>
+      <c r="J77" s="177"/>
+      <c r="K77" s="177"/>
+      <c r="L77" s="177"/>
+      <c r="M77"/>
+    </row>
+    <row r="78" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+    </row>
+    <row r="79" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="I79" s="167"/>
+      <c r="J79" s="167"/>
+      <c r="K79" s="167"/>
+      <c r="L79" s="167"/>
+    </row>
+    <row r="80" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="167"/>
+    </row>
+    <row r="81" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="I81" s="167"/>
+      <c r="J81" s="167"/>
+      <c r="K81" s="167"/>
+      <c r="L81" s="167"/>
+    </row>
+    <row r="82" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="77" t="s">
+      <c r="I82" s="167"/>
+      <c r="J82" s="167"/>
+      <c r="K82" s="167"/>
+      <c r="L82" s="167"/>
+    </row>
+    <row r="83" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168"/>
+      <c r="L83" s="168"/>
+    </row>
+    <row r="84" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="77" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="167"/>
+      <c r="L84" s="167"/>
+    </row>
+    <row r="85" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+      <c r="I85" s="167"/>
+      <c r="J85" s="167"/>
+      <c r="K85" s="167"/>
+      <c r="L85" s="167"/>
+    </row>
+    <row r="86" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
+      <c r="I86" s="167"/>
+      <c r="J86" s="167"/>
+      <c r="K86" s="167"/>
+      <c r="L86" s="167"/>
+    </row>
+    <row r="87" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="112" t="s">
+      <c r="I87" s="167"/>
+      <c r="J87" s="167"/>
+      <c r="K87" s="167"/>
+      <c r="L87" s="167"/>
+    </row>
+    <row r="88" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
+      <c r="L88" s="168"/>
+    </row>
+    <row r="89" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="112"/>
-      <c r="K88" s="112"/>
-      <c r="L88" s="112"/>
-      <c r="M88" s="112"/>
-    </row>
-    <row r="89" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="112" t="s">
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="110"/>
+      <c r="H89" s="110"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="171"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+    </row>
+    <row r="90" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="112"/>
-      <c r="D89" s="112"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="112"/>
-      <c r="G89" s="112"/>
-      <c r="H89" s="112"/>
-      <c r="I89" s="112"/>
-      <c r="J89" s="112"/>
-      <c r="K89" s="112"/>
-      <c r="L89" s="112"/>
-      <c r="M89" s="112"/>
-    </row>
-    <row r="90" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="112" t="s">
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="110"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="110"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+    </row>
+    <row r="91" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="112"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="112"/>
-      <c r="M90" s="112"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="138" t="s">
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="110"/>
+      <c r="I91" s="171"/>
+      <c r="J91" s="171"/>
+      <c r="K91" s="171"/>
+      <c r="L91" s="171"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I92" s="168"/>
+      <c r="J92" s="168"/>
+      <c r="K92" s="168"/>
+      <c r="L92" s="168"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="139"/>
-      <c r="D92" s="139"/>
-      <c r="E92" s="139"/>
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="139"/>
-      <c r="J92" s="139"/>
-      <c r="K92" s="139"/>
-      <c r="L92" s="139"/>
-      <c r="M92" s="139"/>
-      <c r="N92" s="139"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="139" t="s">
+      <c r="C93" s="136"/>
+      <c r="D93" s="136"/>
+      <c r="E93" s="136"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="136"/>
+      <c r="I93" s="178"/>
+      <c r="J93" s="189"/>
+      <c r="K93" s="178"/>
+      <c r="L93" s="178"/>
+      <c r="M93" s="136"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="139"/>
-      <c r="D93" s="139"/>
-      <c r="E93" s="139"/>
-      <c r="F93" s="139"/>
-      <c r="G93" s="139"/>
-      <c r="H93" s="139"/>
-      <c r="I93" s="139"/>
-      <c r="J93" s="139"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="139" t="s">
+      <c r="C94" s="136"/>
+      <c r="D94" s="136"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="136"/>
+      <c r="G94" s="136"/>
+      <c r="H94" s="136"/>
+      <c r="I94" s="178"/>
+      <c r="J94" s="189"/>
+      <c r="K94" s="178"/>
+      <c r="L94" s="178"/>
+      <c r="M94" s="136"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="139"/>
-      <c r="D94" s="139"/>
-      <c r="E94" s="139"/>
-      <c r="F94" s="139"/>
-      <c r="G94" s="139"/>
-      <c r="H94" s="139"/>
-      <c r="I94" s="139"/>
-      <c r="J94" s="139"/>
-      <c r="K94" s="139"/>
-      <c r="L94" s="139"/>
-      <c r="M94" s="139"/>
-      <c r="N94" s="139"/>
+      <c r="C95" s="136"/>
+      <c r="D95" s="136"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="136"/>
+      <c r="G95" s="136"/>
+      <c r="H95" s="136"/>
+      <c r="I95" s="178"/>
+      <c r="J95" s="189"/>
+      <c r="K95" s="178"/>
+      <c r="L95" s="178"/>
+      <c r="M95" s="136"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I96" s="168"/>
+      <c r="J96" s="168"/>
+      <c r="K96" s="168"/>
+      <c r="L96" s="168"/>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97" s="168"/>
+      <c r="J97" s="168"/>
+      <c r="K97" s="168"/>
+      <c r="L97" s="168"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K76:M76"/>
+  <mergeCells count="7">
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.3543307086614173" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3628,7 +3964,7 @@
   </sheetPr>
   <dimension ref="B2:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
@@ -3701,31 +4037,31 @@
     </row>
     <row r="5" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -3739,221 +4075,221 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="95"/>
+      <c r="T6" s="93"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
       <c r="Q7" s="79"/>
       <c r="R7" s="79"/>
       <c r="S7" s="79"/>
-      <c r="T7" s="96"/>
+      <c r="T7" s="94"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
       <c r="T8" s="9"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:21" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="87" t="s">
         <v>79</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="89" t="s">
+      <c r="N10" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="89" t="s">
+      <c r="O10" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="89" t="s">
+      <c r="P10" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" s="109" t="s">
+      <c r="Q10" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="R10" s="124" t="s">
+      <c r="R10" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="90"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="88"/>
     </row>
     <row r="11" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="88">
+      <c r="H11" s="86">
         <v>1</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="86">
         <v>56105075</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <v>22</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88" t="s">
+      <c r="M11" s="86"/>
+      <c r="N11" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="88" t="s">
+      <c r="O11" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="88" t="s">
+      <c r="P11" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="125" t="s">
+      <c r="Q11" s="103"/>
+      <c r="R11" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="91"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="89"/>
     </row>
     <row r="12" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="88">
+      <c r="H12" s="86">
         <v>2</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="86">
         <v>61206330</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="86">
         <v>22</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88" t="s">
+      <c r="M12" s="86"/>
+      <c r="N12" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="88" t="s">
+      <c r="P12" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="125" t="s">
+      <c r="Q12" s="103"/>
+      <c r="R12" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="92"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="90"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="107"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="105"/>
     </row>
     <row r="14" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3967,7 +4303,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="108"/>
+      <c r="T14" s="106"/>
     </row>
     <row r="15" spans="2:21" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -4008,8 +4344,8 @@
   </sheetPr>
   <dimension ref="B4:AD31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,13 +4380,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D4" s="166"/>
+      <c r="D4" s="149"/>
       <c r="F4" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D5" s="165"/>
+      <c r="D5" s="148"/>
       <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
@@ -4093,21 +4429,21 @@
       <c r="G8"/>
       <c r="H8" s="18"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="2:30" ht="21" thickTop="1" x14ac:dyDescent="0.3">
@@ -4119,21 +4455,21 @@
       <c r="G9" s="22"/>
       <c r="H9" s="18"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="2:30" ht="20.25" x14ac:dyDescent="0.3">
@@ -4145,24 +4481,24 @@
       <c r="G10" s="24"/>
       <c r="H10" s="18"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
       <c r="Y10" s="18"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
     </row>
     <row r="11" spans="2:30" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
@@ -4173,24 +4509,24 @@
       <c r="G11" s="24"/>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="148"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="145"/>
       <c r="Z11" s="80"/>
-      <c r="AA11" s="102"/>
+      <c r="AA11" s="100"/>
     </row>
     <row r="12" spans="2:30" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
@@ -4201,52 +4537,52 @@
       <c r="G12" s="24"/>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="127" t="s">
+      <c r="L12" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="126" t="s">
+      <c r="N12" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="126" t="s">
+      <c r="O12" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="126" t="s">
+      <c r="P12" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="128" t="s">
+      <c r="Q12" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="126" t="s">
+      <c r="R12" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="126" t="s">
+      <c r="S12" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="129" t="s">
+      <c r="T12" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="126" t="s">
+      <c r="U12" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="V12" s="130" t="s">
+      <c r="V12" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="130" t="s">
+      <c r="W12" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="130" t="s">
+      <c r="X12" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="149"/>
+      <c r="Y12" s="146"/>
     </row>
     <row r="13" spans="2:30" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
@@ -4259,80 +4595,80 @@
       <c r="G13" s="24"/>
       <c r="H13" s="18"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="134">
+      <c r="J13" s="131">
         <v>1</v>
       </c>
-      <c r="K13" s="135">
+      <c r="K13" s="132">
         <v>56105075</v>
       </c>
-      <c r="L13" s="136" t="s">
+      <c r="L13" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="136">
+      <c r="M13" s="133">
         <v>22</v>
       </c>
-      <c r="N13" s="134" t="s">
+      <c r="N13" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134" t="s">
+      <c r="O13" s="131"/>
+      <c r="P13" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="136" t="s">
+      <c r="Q13" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="137" t="s">
+      <c r="R13" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="137"/>
-      <c r="T13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="131"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
-      <c r="Y13" s="149"/>
+      <c r="Y13" s="146"/>
     </row>
     <row r="14" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="167"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="24"/>
       <c r="H14" s="18"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="134">
+      <c r="J14" s="131">
         <v>2</v>
       </c>
-      <c r="K14" s="135">
+      <c r="K14" s="132">
         <v>61206330</v>
       </c>
-      <c r="L14" s="136" t="s">
+      <c r="L14" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="136">
+      <c r="M14" s="133">
         <v>22</v>
       </c>
-      <c r="N14" s="134" t="s">
+      <c r="N14" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134" t="s">
+      <c r="O14" s="131"/>
+      <c r="P14" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="136" t="s">
+      <c r="Q14" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="137" t="s">
+      <c r="R14" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="137"/>
-      <c r="T14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="131"/>
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
-      <c r="Y14" s="149"/>
+      <c r="Y14" s="146"/>
     </row>
     <row r="15" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
@@ -4347,27 +4683,27 @@
       <c r="G15" s="24"/>
       <c r="H15" s="18"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
     </row>
     <row r="16" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
@@ -4380,41 +4716,41 @@
       <c r="G16" s="24"/>
       <c r="H16" s="18"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="131" t="s">
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="132" t="s">
+      <c r="S16" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="132" t="s">
+      <c r="T16" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="133" t="s">
+      <c r="U16" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="133" t="s">
+      <c r="V16" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="W16" s="133" t="s">
+      <c r="W16" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="133" t="s">
+      <c r="X16" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
     </row>
     <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
@@ -4425,15 +4761,15 @@
       <c r="G17" s="24"/>
       <c r="H17" s="18"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="123" t="s">
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="120" t="s">
         <v>73</v>
       </c>
       <c r="S17" s="34"/>
@@ -4457,15 +4793,15 @@
       <c r="G18" s="24"/>
       <c r="H18" s="18"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="123" t="s">
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="120" t="s">
         <v>73</v>
       </c>
       <c r="S18" s="36"/>
@@ -4487,21 +4823,21 @@
       <c r="G19" s="24"/>
       <c r="H19" s="18"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="144"/>
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,21 +4849,21 @@
       <c r="G20" s="24"/>
       <c r="H20" s="18"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4543,21 +4879,21 @@
       <c r="G21" s="24"/>
       <c r="H21" s="18"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
-      <c r="V21" s="146"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="144"/>
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4571,47 +4907,47 @@
       <c r="G22" s="24"/>
       <c r="H22" s="18"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="146"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="103"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="17"/>
       <c r="F23" s="80"/>
       <c r="G23" s="24"/>
       <c r="H23" s="18"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="146"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="144"/>
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4625,21 +4961,21 @@
       <c r="G24" s="24"/>
       <c r="H24" s="18"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="146"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="144"/>
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
@@ -4651,21 +4987,21 @@
       <c r="G25" s="24"/>
       <c r="H25" s="18"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4677,21 +5013,21 @@
       <c r="G26" s="29"/>
       <c r="H26" s="18"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="144"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4703,21 +5039,21 @@
       <c r="G27"/>
       <c r="H27" s="18"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="144"/>
+      <c r="X27" s="144"/>
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -4729,21 +5065,21 @@
       <c r="G28"/>
       <c r="H28" s="18"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5081,9 +5417,9 @@
     </row>
     <row r="14" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="16"/>

--- a/doc/descriptions/Погрузка 06_11_2024.xlsx
+++ b/doc/descriptions/Погрузка 06_11_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F011C-8900-4A78-9985-F016265C3816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9F440-86E5-4ED9-B6A6-53B0FCB245BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="4" r:id="rId1"/>
@@ -1785,48 +1785,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1861,31 +1819,10 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1895,6 +1832,69 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2731,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD95"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2759,145 +2759,145 @@
       <c r="J1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
     </row>
     <row r="2" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
     </row>
     <row r="3" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
     </row>
     <row r="12" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
     </row>
     <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
     </row>
     <row r="15" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="75"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
     </row>
     <row r="16" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="108">
@@ -2912,17 +2912,17 @@
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
-      <c r="I18" s="179" t="s">
+      <c r="I18" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="183"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
       <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="108"/>
-      <c r="B19" s="165">
+      <c r="B19" s="151">
         <v>188</v>
       </c>
       <c r="C19" s="109" t="s">
@@ -2941,10 +2941,10 @@
         <v>97</v>
       </c>
       <c r="H19" s="108"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
       <c r="M19" s="108"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,10 +2958,10 @@
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
       <c r="M20" s="108"/>
     </row>
     <row r="21" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,17 +2975,17 @@
       <c r="F21" s="108"/>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
       <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110">
@@ -3000,20 +3000,20 @@
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
       <c r="M23" s="110"/>
       <c r="P23" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112">
@@ -3028,10 +3028,10 @@
       <c r="F25" s="112"/>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
@@ -3052,10 +3052,10 @@
       <c r="F26" s="112"/>
       <c r="G26" s="112"/>
       <c r="H26" s="112"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="112"/>
       <c r="N26" s="112"/>
       <c r="O26" s="112"/>
@@ -3071,10 +3071,10 @@
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
       <c r="M27" s="112"/>
       <c r="N27" s="112"/>
       <c r="O27" s="112"/>
@@ -3090,10 +3090,10 @@
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
@@ -3109,20 +3109,20 @@
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
       <c r="H29" s="112"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
       <c r="M29" s="112"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="82"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108">
@@ -3137,10 +3137,10 @@
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
       <c r="H31" s="108"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
       <c r="M31" s="108"/>
       <c r="N31" s="108"/>
     </row>
@@ -3155,10 +3155,10 @@
       <c r="F32" s="108"/>
       <c r="G32" s="108"/>
       <c r="H32" s="108"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
       <c r="M32" s="108"/>
       <c r="N32" s="108"/>
     </row>
@@ -3173,10 +3173,10 @@
       <c r="F33" s="108"/>
       <c r="G33" s="108"/>
       <c r="H33" s="108"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
       <c r="M33" s="108"/>
       <c r="N33" s="108"/>
     </row>
@@ -3191,19 +3191,19 @@
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="H34" s="108"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
       <c r="M34" s="108"/>
       <c r="N34" s="108"/>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="108">
@@ -3218,10 +3218,10 @@
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
       <c r="M36" s="108"/>
       <c r="N36" s="108"/>
       <c r="O36" s="108"/>
@@ -3237,10 +3237,10 @@
       <c r="F37" s="108"/>
       <c r="G37" s="108"/>
       <c r="H37" s="108"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
       <c r="M37" s="108"/>
       <c r="N37" s="108"/>
       <c r="O37" s="108"/>
@@ -3256,20 +3256,20 @@
       <c r="F38" s="108"/>
       <c r="G38" s="108"/>
       <c r="H38" s="108"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
       <c r="M38" s="108"/>
       <c r="N38" s="108"/>
       <c r="O38" s="108"/>
     </row>
     <row r="39" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="82"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
     </row>
     <row r="40" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="116">
@@ -3284,10 +3284,10 @@
       <c r="F40" s="116"/>
       <c r="G40" s="116"/>
       <c r="H40" s="116"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
       <c r="M40" s="116"/>
       <c r="N40" s="116"/>
       <c r="O40" s="116"/>
@@ -3303,10 +3303,10 @@
       <c r="F41" s="116"/>
       <c r="G41" s="116"/>
       <c r="H41" s="116"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="159"/>
       <c r="M41" s="116"/>
       <c r="N41" s="116"/>
       <c r="O41" s="116"/>
@@ -3322,10 +3322,10 @@
       <c r="F42" s="116"/>
       <c r="G42" s="116"/>
       <c r="H42" s="116"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="159"/>
+      <c r="L42" s="159"/>
       <c r="M42" s="116"/>
       <c r="N42" s="116"/>
       <c r="O42" s="116"/>
@@ -3339,20 +3339,20 @@
       <c r="F43" s="116"/>
       <c r="G43" s="116"/>
       <c r="H43" s="116"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
       <c r="M43" s="116"/>
       <c r="N43" s="116"/>
       <c r="O43" s="116"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="112">
@@ -3367,10 +3367,10 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="112"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="158"/>
       <c r="M45" s="112"/>
       <c r="N45" s="112"/>
       <c r="O45" s="112"/>
@@ -3386,10 +3386,10 @@
       <c r="F46" s="112"/>
       <c r="G46" s="112"/>
       <c r="H46" s="112"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="172"/>
-      <c r="L46" s="172"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="174"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="158"/>
       <c r="M46" s="112"/>
       <c r="N46" s="112"/>
       <c r="O46" s="112"/>
@@ -3405,78 +3405,78 @@
       <c r="F47" s="112"/>
       <c r="G47" s="112"/>
       <c r="H47" s="112"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="172"/>
-      <c r="L47" s="172"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="158"/>
+      <c r="L47" s="158"/>
       <c r="M47" s="112"/>
       <c r="N47" s="112"/>
       <c r="O47" s="112"/>
     </row>
     <row r="48" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="82"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="153"/>
     </row>
     <row r="49" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="186">
+      <c r="A49" s="165">
         <v>9</v>
       </c>
-      <c r="B49" s="186" t="s">
+      <c r="B49" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="187"/>
-      <c r="D49" s="187"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="188" t="s">
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="J49" s="188"/>
-      <c r="K49" s="188"/>
-      <c r="L49" s="188"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="167"/>
+      <c r="L49" s="167"/>
       <c r="M49" s="110"/>
       <c r="N49" s="110"/>
       <c r="O49" s="110"/>
     </row>
     <row r="50" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="186"/>
-      <c r="B50" s="187" t="s">
+      <c r="A50" s="165"/>
+      <c r="B50" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="187"/>
-      <c r="D50" s="187"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="188"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
       <c r="M50" s="110"/>
       <c r="N50" s="110"/>
       <c r="O50" s="110"/>
     </row>
     <row r="51" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="186"/>
-      <c r="B51" s="187" t="s">
+      <c r="A51" s="165"/>
+      <c r="B51" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="187"/>
-      <c r="D51" s="187"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="L51" s="188"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
+      <c r="E51" s="166"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
       <c r="M51" s="110"/>
       <c r="N51" s="110"/>
       <c r="O51" s="110"/>
@@ -3484,100 +3484,100 @@
     <row r="52" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="102"/>
       <c r="B52" s="102"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
     </row>
     <row r="53" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="153"/>
     </row>
     <row r="54" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="153"/>
     </row>
     <row r="55" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="167"/>
-      <c r="J55" s="167"/>
-      <c r="K55" s="167"/>
-      <c r="L55" s="167"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="153"/>
     </row>
     <row r="56" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="167"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="153"/>
     </row>
     <row r="57" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="153"/>
     </row>
     <row r="58" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="153"/>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167"/>
-      <c r="K59" s="167"/>
-      <c r="L59" s="167"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="153"/>
     </row>
     <row r="60" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="167"/>
-      <c r="J60" s="167"/>
-      <c r="K60" s="167"/>
-      <c r="L60" s="167"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
     </row>
     <row r="61" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="I61" s="167"/>
-      <c r="J61" s="167"/>
-      <c r="K61" s="167"/>
-      <c r="L61" s="167"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
     </row>
     <row r="62" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
       <c r="M62" s="79"/>
       <c r="N62" s="79"/>
     </row>
@@ -3585,10 +3585,10 @@
       <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="174"/>
-      <c r="J63" s="175"/>
-      <c r="K63" s="174"/>
-      <c r="L63" s="174"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="160"/>
       <c r="M63" s="81"/>
       <c r="N63" s="79"/>
     </row>
@@ -3596,10 +3596,10 @@
       <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I64" s="174"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="174"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
       <c r="M64" s="81"/>
       <c r="N64" s="79"/>
     </row>
@@ -3607,10 +3607,10 @@
       <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="174"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="174"/>
-      <c r="L65" s="174"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="160"/>
+      <c r="L65" s="160"/>
       <c r="M65" s="81"/>
       <c r="N65" s="79"/>
     </row>
@@ -3618,10 +3618,10 @@
       <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="174"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="174"/>
-      <c r="L66" s="174"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="160"/>
       <c r="M66" s="81"/>
       <c r="N66" s="79"/>
     </row>
@@ -3629,18 +3629,18 @@
       <c r="B67" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="I67" s="174"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="174"/>
-      <c r="L67" s="174"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="160"/>
       <c r="M67" s="81"/>
       <c r="N67" s="79"/>
     </row>
     <row r="68" spans="2:14" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I68" s="174"/>
-      <c r="J68" s="175"/>
-      <c r="K68" s="174"/>
-      <c r="L68" s="174"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="160"/>
+      <c r="L68" s="160"/>
       <c r="M68" s="81"/>
       <c r="N68" s="79"/>
     </row>
@@ -3654,57 +3654,57 @@
       <c r="F69" s="85"/>
       <c r="G69" s="85"/>
       <c r="H69" s="85"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="174"/>
-      <c r="L69" s="174"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
+      <c r="K69" s="160"/>
+      <c r="L69" s="160"/>
       <c r="M69" s="81"/>
     </row>
     <row r="70" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="174"/>
-      <c r="L70" s="174"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="160"/>
+      <c r="L70" s="160"/>
       <c r="M70" s="81"/>
     </row>
     <row r="71" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I71" s="174"/>
-      <c r="J71" s="174"/>
-      <c r="K71" s="174"/>
-      <c r="L71" s="174"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="160"/>
       <c r="M71" s="81"/>
     </row>
     <row r="72" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="174"/>
-      <c r="J72" s="174"/>
-      <c r="K72" s="174"/>
-      <c r="L72" s="174"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
       <c r="M72" s="81"/>
     </row>
     <row r="73" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I73" s="174"/>
-      <c r="J73" s="167"/>
-      <c r="K73" s="167"/>
-      <c r="L73" s="167"/>
+      <c r="I73" s="160"/>
+      <c r="J73" s="153"/>
+      <c r="K73" s="153"/>
+      <c r="L73" s="153"/>
       <c r="M73"/>
     </row>
     <row r="74" spans="2:14" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I74" s="174"/>
-      <c r="J74" s="175"/>
-      <c r="K74" s="174"/>
-      <c r="L74" s="174"/>
+      <c r="I74" s="160"/>
+      <c r="J74" s="161"/>
+      <c r="K74" s="160"/>
+      <c r="L74" s="160"/>
       <c r="M74" s="81"/>
       <c r="N74" s="79"/>
     </row>
@@ -3712,124 +3712,124 @@
       <c r="B75" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I75" s="174"/>
-      <c r="J75" s="174"/>
-      <c r="K75" s="174"/>
-      <c r="L75" s="174"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="160"/>
+      <c r="K75" s="160"/>
+      <c r="L75" s="160"/>
       <c r="M75"/>
     </row>
     <row r="76" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I76" s="174"/>
-      <c r="J76" s="176"/>
-      <c r="K76" s="174"/>
-      <c r="L76" s="174"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="162"/>
+      <c r="K76" s="160"/>
+      <c r="L76" s="160"/>
       <c r="M76"/>
     </row>
     <row r="77" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="174"/>
-      <c r="J77" s="177"/>
-      <c r="K77" s="177"/>
-      <c r="L77" s="177"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
       <c r="M77"/>
     </row>
     <row r="78" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="167"/>
-      <c r="J78" s="167"/>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
+      <c r="I78" s="153"/>
+      <c r="J78" s="153"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="153"/>
     </row>
     <row r="79" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I79" s="167"/>
-      <c r="J79" s="167"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
+      <c r="I79" s="153"/>
+      <c r="J79" s="153"/>
+      <c r="K79" s="153"/>
+      <c r="L79" s="153"/>
     </row>
     <row r="80" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
+      <c r="I80" s="153"/>
+      <c r="J80" s="153"/>
+      <c r="K80" s="153"/>
+      <c r="L80" s="153"/>
     </row>
     <row r="81" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I81" s="167"/>
-      <c r="J81" s="167"/>
-      <c r="K81" s="167"/>
-      <c r="L81" s="167"/>
+      <c r="I81" s="153"/>
+      <c r="J81" s="153"/>
+      <c r="K81" s="153"/>
+      <c r="L81" s="153"/>
     </row>
     <row r="82" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I82" s="167"/>
-      <c r="J82" s="167"/>
-      <c r="K82" s="167"/>
-      <c r="L82" s="167"/>
+      <c r="I82" s="153"/>
+      <c r="J82" s="153"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="153"/>
     </row>
     <row r="83" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="168"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="154"/>
     </row>
     <row r="84" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I84" s="167"/>
-      <c r="J84" s="167"/>
-      <c r="K84" s="167"/>
-      <c r="L84" s="167"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153"/>
+      <c r="K84" s="153"/>
+      <c r="L84" s="153"/>
     </row>
     <row r="85" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I85" s="167"/>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
-      <c r="L85" s="167"/>
+      <c r="I85" s="153"/>
+      <c r="J85" s="153"/>
+      <c r="K85" s="153"/>
+      <c r="L85" s="153"/>
     </row>
     <row r="86" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I86" s="167"/>
-      <c r="J86" s="167"/>
-      <c r="K86" s="167"/>
-      <c r="L86" s="167"/>
+      <c r="I86" s="153"/>
+      <c r="J86" s="153"/>
+      <c r="K86" s="153"/>
+      <c r="L86" s="153"/>
     </row>
     <row r="87" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I87" s="167"/>
-      <c r="J87" s="167"/>
-      <c r="K87" s="167"/>
-      <c r="L87" s="167"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
     </row>
     <row r="88" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
-      <c r="L88" s="168"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
+      <c r="K88" s="154"/>
+      <c r="L88" s="154"/>
     </row>
     <row r="89" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="110" t="s">
@@ -3841,10 +3841,10 @@
       <c r="F89" s="110"/>
       <c r="G89" s="110"/>
       <c r="H89" s="110"/>
-      <c r="I89" s="171"/>
-      <c r="J89" s="171"/>
-      <c r="K89" s="171"/>
-      <c r="L89" s="171"/>
+      <c r="I89" s="157"/>
+      <c r="J89" s="157"/>
+      <c r="K89" s="157"/>
+      <c r="L89" s="157"/>
     </row>
     <row r="90" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="110" t="s">
@@ -3856,10 +3856,10 @@
       <c r="F90" s="110"/>
       <c r="G90" s="110"/>
       <c r="H90" s="110"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="171"/>
+      <c r="I90" s="157"/>
+      <c r="J90" s="157"/>
+      <c r="K90" s="157"/>
+      <c r="L90" s="157"/>
     </row>
     <row r="91" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="110" t="s">
@@ -3871,16 +3871,16 @@
       <c r="F91" s="110"/>
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
-      <c r="I91" s="171"/>
-      <c r="J91" s="171"/>
-      <c r="K91" s="171"/>
-      <c r="L91" s="171"/>
+      <c r="I91" s="157"/>
+      <c r="J91" s="157"/>
+      <c r="K91" s="157"/>
+      <c r="L91" s="157"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I92" s="168"/>
-      <c r="J92" s="168"/>
-      <c r="K92" s="168"/>
-      <c r="L92" s="168"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="135" t="s">
@@ -3892,10 +3892,10 @@
       <c r="F93" s="136"/>
       <c r="G93" s="136"/>
       <c r="H93" s="136"/>
-      <c r="I93" s="178"/>
-      <c r="J93" s="189"/>
-      <c r="K93" s="178"/>
-      <c r="L93" s="178"/>
+      <c r="I93" s="163"/>
+      <c r="J93" s="168"/>
+      <c r="K93" s="163"/>
+      <c r="L93" s="163"/>
       <c r="M93" s="136"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
       <c r="F94" s="136"/>
       <c r="G94" s="136"/>
       <c r="H94" s="136"/>
-      <c r="I94" s="178"/>
-      <c r="J94" s="189"/>
-      <c r="K94" s="178"/>
-      <c r="L94" s="178"/>
+      <c r="I94" s="163"/>
+      <c r="J94" s="168"/>
+      <c r="K94" s="163"/>
+      <c r="L94" s="163"/>
       <c r="M94" s="136"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -3924,23 +3924,23 @@
       <c r="F95" s="136"/>
       <c r="G95" s="136"/>
       <c r="H95" s="136"/>
-      <c r="I95" s="178"/>
-      <c r="J95" s="189"/>
-      <c r="K95" s="178"/>
-      <c r="L95" s="178"/>
+      <c r="I95" s="163"/>
+      <c r="J95" s="168"/>
+      <c r="K95" s="163"/>
+      <c r="L95" s="163"/>
       <c r="M95" s="136"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I96" s="168"/>
-      <c r="J96" s="168"/>
-      <c r="K96" s="168"/>
-      <c r="L96" s="168"/>
+      <c r="I96" s="154"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="154"/>
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I97" s="168"/>
-      <c r="J97" s="168"/>
-      <c r="K97" s="168"/>
-      <c r="L97" s="168"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3992,27 +3992,27 @@
   <sheetData>
     <row r="2" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -4344,8 +4344,8 @@
   </sheetPr>
   <dimension ref="B4:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,32 +4393,32 @@
     </row>
     <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="156"/>
-      <c r="X7" s="156"/>
-      <c r="Y7" s="157"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="181"/>
     </row>
     <row r="8" spans="2:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
@@ -5007,9 +5007,9 @@
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
       <c r="G26" s="29"/>
       <c r="H26" s="18"/>
       <c r="I26" s="16"/>
@@ -5203,9 +5203,9 @@
     <row r="7" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="16"/>
@@ -5228,9 +5228,9 @@
     <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
       <c r="H8" s="18"/>
       <c r="I8" s="16"/>
       <c r="J8" s="54"/>
@@ -5354,11 +5354,11 @@
     </row>
     <row r="11" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="161"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
@@ -5405,11 +5405,11 @@
     </row>
     <row r="13" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="161"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="186"/>
       <c r="F13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="16"/>
@@ -5427,11 +5427,11 @@
     </row>
     <row r="15" spans="2:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="163"/>
-      <c r="E15" s="164"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
       <c r="F15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="16"/>

--- a/doc/descriptions/Погрузка 06_11_2024.xlsx
+++ b/doc/descriptions/Погрузка 06_11_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9F440-86E5-4ED9-B6A6-53B0FCB245BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D4370-DD8E-48C3-858C-AE99F3B4DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="4" r:id="rId1"/>
@@ -2731,7 +2731,7 @@
   </sheetPr>
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3964,8 +3964,8 @@
   </sheetPr>
   <dimension ref="B2:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/doc/descriptions/Погрузка 06_11_2024.xlsx
+++ b/doc/descriptions/Погрузка 06_11_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D4370-DD8E-48C3-858C-AE99F3B4DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3B3AE-9DC1-4330-9438-39D77E0F4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{12E9A976-D2B1-4923-AE9C-25C20651B7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="4" r:id="rId1"/>
@@ -960,7 +960,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1012,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1713,27 +1719,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1895,6 +1880,18 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,145 +2756,145 @@
       <c r="J1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
     </row>
     <row r="2" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
     </row>
     <row r="12" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
     </row>
     <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
     </row>
     <row r="15" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="75"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
     </row>
     <row r="16" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="108">
@@ -2912,17 +2909,17 @@
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
-      <c r="I18" s="170" t="s">
+      <c r="I18" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="173"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
       <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="108"/>
-      <c r="B19" s="151">
+      <c r="B19" s="144">
         <v>188</v>
       </c>
       <c r="C19" s="109" t="s">
@@ -2941,10 +2938,10 @@
         <v>97</v>
       </c>
       <c r="H19" s="108"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
       <c r="M19" s="108"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,10 +2955,10 @@
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
       <c r="M20" s="108"/>
     </row>
     <row r="21" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,17 +2972,17 @@
       <c r="F21" s="108"/>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
       <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110">
@@ -3000,20 +2997,20 @@
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
       <c r="M23" s="110"/>
       <c r="P23" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112">
@@ -3028,10 +3025,10 @@
       <c r="F25" s="112"/>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
       <c r="M25" s="112"/>
       <c r="N25" s="112"/>
       <c r="O25" s="112"/>
@@ -3052,10 +3049,10 @@
       <c r="F26" s="112"/>
       <c r="G26" s="112"/>
       <c r="H26" s="112"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
       <c r="M26" s="112"/>
       <c r="N26" s="112"/>
       <c r="O26" s="112"/>
@@ -3071,10 +3068,10 @@
       <c r="F27" s="112"/>
       <c r="G27" s="112"/>
       <c r="H27" s="112"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
       <c r="M27" s="112"/>
       <c r="N27" s="112"/>
       <c r="O27" s="112"/>
@@ -3090,10 +3087,10 @@
       <c r="F28" s="112"/>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
       <c r="M28" s="112"/>
       <c r="N28" s="112"/>
       <c r="O28" s="112"/>
@@ -3109,20 +3106,20 @@
       <c r="F29" s="112"/>
       <c r="G29" s="112"/>
       <c r="H29" s="112"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
       <c r="M29" s="112"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="82"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108">
@@ -3137,10 +3134,10 @@
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
       <c r="H31" s="108"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
       <c r="M31" s="108"/>
       <c r="N31" s="108"/>
     </row>
@@ -3155,10 +3152,10 @@
       <c r="F32" s="108"/>
       <c r="G32" s="108"/>
       <c r="H32" s="108"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
       <c r="M32" s="108"/>
       <c r="N32" s="108"/>
     </row>
@@ -3173,10 +3170,10 @@
       <c r="F33" s="108"/>
       <c r="G33" s="108"/>
       <c r="H33" s="108"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
       <c r="M33" s="108"/>
       <c r="N33" s="108"/>
     </row>
@@ -3191,19 +3188,19 @@
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="H34" s="108"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
       <c r="M34" s="108"/>
       <c r="N34" s="108"/>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="108">
@@ -3218,10 +3215,10 @@
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="H36" s="108"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
       <c r="M36" s="108"/>
       <c r="N36" s="108"/>
       <c r="O36" s="108"/>
@@ -3237,10 +3234,10 @@
       <c r="F37" s="108"/>
       <c r="G37" s="108"/>
       <c r="H37" s="108"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
       <c r="M37" s="108"/>
       <c r="N37" s="108"/>
       <c r="O37" s="108"/>
@@ -3256,20 +3253,20 @@
       <c r="F38" s="108"/>
       <c r="G38" s="108"/>
       <c r="H38" s="108"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
       <c r="M38" s="108"/>
       <c r="N38" s="108"/>
       <c r="O38" s="108"/>
     </row>
     <row r="39" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="82"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
     </row>
     <row r="40" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="116">
@@ -3284,10 +3281,10 @@
       <c r="F40" s="116"/>
       <c r="G40" s="116"/>
       <c r="H40" s="116"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="159"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
       <c r="M40" s="116"/>
       <c r="N40" s="116"/>
       <c r="O40" s="116"/>
@@ -3303,10 +3300,10 @@
       <c r="F41" s="116"/>
       <c r="G41" s="116"/>
       <c r="H41" s="116"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
       <c r="M41" s="116"/>
       <c r="N41" s="116"/>
       <c r="O41" s="116"/>
@@ -3322,10 +3319,10 @@
       <c r="F42" s="116"/>
       <c r="G42" s="116"/>
       <c r="H42" s="116"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="159"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
       <c r="M42" s="116"/>
       <c r="N42" s="116"/>
       <c r="O42" s="116"/>
@@ -3339,20 +3336,20 @@
       <c r="F43" s="116"/>
       <c r="G43" s="116"/>
       <c r="H43" s="116"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="159"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
       <c r="M43" s="116"/>
       <c r="N43" s="116"/>
       <c r="O43" s="116"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="153"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
     </row>
     <row r="45" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="112">
@@ -3367,10 +3364,10 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="112"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
       <c r="M45" s="112"/>
       <c r="N45" s="112"/>
       <c r="O45" s="112"/>
@@ -3386,10 +3383,10 @@
       <c r="F46" s="112"/>
       <c r="G46" s="112"/>
       <c r="H46" s="112"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="167"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
       <c r="M46" s="112"/>
       <c r="N46" s="112"/>
       <c r="O46" s="112"/>
@@ -3405,78 +3402,78 @@
       <c r="F47" s="112"/>
       <c r="G47" s="112"/>
       <c r="H47" s="112"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="158"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
       <c r="M47" s="112"/>
       <c r="N47" s="112"/>
       <c r="O47" s="112"/>
     </row>
     <row r="48" spans="1:15" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="82"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="153"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
     </row>
     <row r="49" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="165">
+      <c r="A49" s="158">
         <v>9</v>
       </c>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="167" t="s">
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
       <c r="M49" s="110"/>
       <c r="N49" s="110"/>
       <c r="O49" s="110"/>
     </row>
     <row r="50" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="165"/>
-      <c r="B50" s="166" t="s">
+      <c r="A50" s="158"/>
+      <c r="B50" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
       <c r="M50" s="110"/>
       <c r="N50" s="110"/>
       <c r="O50" s="110"/>
     </row>
     <row r="51" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="165"/>
-      <c r="B51" s="166" t="s">
+      <c r="A51" s="158"/>
+      <c r="B51" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
       <c r="M51" s="110"/>
       <c r="N51" s="110"/>
       <c r="O51" s="110"/>
@@ -3484,100 +3481,100 @@
     <row r="52" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="102"/>
       <c r="B52" s="102"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
     </row>
     <row r="53" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="153"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
     </row>
     <row r="54" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="153"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
     </row>
     <row r="55" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
     </row>
     <row r="56" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="153"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
     </row>
     <row r="57" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="153"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
     </row>
     <row r="58" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="153"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="153"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="146"/>
     </row>
     <row r="59" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="153"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="153"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="146"/>
+      <c r="L59" s="146"/>
     </row>
     <row r="60" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
     </row>
     <row r="61" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="146"/>
     </row>
     <row r="62" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
       <c r="M62" s="79"/>
       <c r="N62" s="79"/>
     </row>
@@ -3585,10 +3582,10 @@
       <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="160"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="160"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
       <c r="M63" s="81"/>
       <c r="N63" s="79"/>
     </row>
@@ -3596,10 +3593,10 @@
       <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I64" s="160"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="160"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
       <c r="M64" s="81"/>
       <c r="N64" s="79"/>
     </row>
@@ -3607,10 +3604,10 @@
       <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="160"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="160"/>
-      <c r="L65" s="160"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="153"/>
       <c r="M65" s="81"/>
       <c r="N65" s="79"/>
     </row>
@@ -3618,10 +3615,10 @@
       <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="160"/>
-      <c r="J66" s="161"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="160"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
       <c r="M66" s="81"/>
       <c r="N66" s="79"/>
     </row>
@@ -3629,18 +3626,18 @@
       <c r="B67" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="I67" s="160"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="160"/>
-      <c r="L67" s="160"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="153"/>
       <c r="M67" s="81"/>
       <c r="N67" s="79"/>
     </row>
     <row r="68" spans="2:14" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I68" s="160"/>
-      <c r="J68" s="161"/>
-      <c r="K68" s="160"/>
-      <c r="L68" s="160"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="154"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="153"/>
       <c r="M68" s="81"/>
       <c r="N68" s="79"/>
     </row>
@@ -3654,57 +3651,57 @@
       <c r="F69" s="85"/>
       <c r="G69" s="85"/>
       <c r="H69" s="85"/>
-      <c r="I69" s="160"/>
-      <c r="J69" s="160"/>
-      <c r="K69" s="160"/>
-      <c r="L69" s="160"/>
+      <c r="I69" s="153"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+      <c r="L69" s="153"/>
       <c r="M69" s="81"/>
     </row>
     <row r="70" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="160"/>
-      <c r="J70" s="160"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="153"/>
       <c r="M70" s="81"/>
     </row>
     <row r="71" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I71" s="160"/>
-      <c r="J71" s="160"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="160"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
       <c r="M71" s="81"/>
     </row>
     <row r="72" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="153"/>
       <c r="M72" s="81"/>
     </row>
     <row r="73" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I73" s="160"/>
-      <c r="J73" s="153"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="153"/>
+      <c r="I73" s="153"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="146"/>
+      <c r="L73" s="146"/>
       <c r="M73"/>
     </row>
     <row r="74" spans="2:14" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I74" s="160"/>
-      <c r="J74" s="161"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="160"/>
+      <c r="I74" s="153"/>
+      <c r="J74" s="154"/>
+      <c r="K74" s="153"/>
+      <c r="L74" s="153"/>
       <c r="M74" s="81"/>
       <c r="N74" s="79"/>
     </row>
@@ -3712,124 +3709,124 @@
       <c r="B75" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I75" s="160"/>
-      <c r="J75" s="160"/>
-      <c r="K75" s="160"/>
-      <c r="L75" s="160"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="153"/>
+      <c r="L75" s="153"/>
       <c r="M75"/>
     </row>
     <row r="76" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I76" s="160"/>
-      <c r="J76" s="162"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="160"/>
+      <c r="I76" s="153"/>
+      <c r="J76" s="155"/>
+      <c r="K76" s="153"/>
+      <c r="L76" s="153"/>
       <c r="M76"/>
     </row>
     <row r="77" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="160"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="169"/>
+      <c r="I77" s="153"/>
+      <c r="J77" s="162"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="162"/>
       <c r="M77"/>
     </row>
     <row r="78" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="153"/>
-      <c r="J78" s="153"/>
-      <c r="K78" s="153"/>
-      <c r="L78" s="153"/>
+      <c r="I78" s="146"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="146"/>
     </row>
     <row r="79" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I79" s="153"/>
-      <c r="J79" s="153"/>
-      <c r="K79" s="153"/>
-      <c r="L79" s="153"/>
+      <c r="I79" s="146"/>
+      <c r="J79" s="146"/>
+      <c r="K79" s="146"/>
+      <c r="L79" s="146"/>
     </row>
     <row r="80" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I80" s="153"/>
-      <c r="J80" s="153"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="153"/>
+      <c r="I80" s="146"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
     </row>
     <row r="81" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I81" s="153"/>
-      <c r="J81" s="153"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
+      <c r="I81" s="146"/>
+      <c r="J81" s="146"/>
+      <c r="K81" s="146"/>
+      <c r="L81" s="146"/>
     </row>
     <row r="82" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I82" s="153"/>
-      <c r="J82" s="153"/>
-      <c r="K82" s="153"/>
-      <c r="L82" s="153"/>
+      <c r="I82" s="146"/>
+      <c r="J82" s="146"/>
+      <c r="K82" s="146"/>
+      <c r="L82" s="146"/>
     </row>
     <row r="83" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="147"/>
     </row>
     <row r="84" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I84" s="153"/>
-      <c r="J84" s="153"/>
-      <c r="K84" s="153"/>
-      <c r="L84" s="153"/>
+      <c r="I84" s="146"/>
+      <c r="J84" s="146"/>
+      <c r="K84" s="146"/>
+      <c r="L84" s="146"/>
     </row>
     <row r="85" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I85" s="153"/>
-      <c r="J85" s="153"/>
-      <c r="K85" s="153"/>
-      <c r="L85" s="153"/>
+      <c r="I85" s="146"/>
+      <c r="J85" s="146"/>
+      <c r="K85" s="146"/>
+      <c r="L85" s="146"/>
     </row>
     <row r="86" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I86" s="153"/>
-      <c r="J86" s="153"/>
-      <c r="K86" s="153"/>
-      <c r="L86" s="153"/>
+      <c r="I86" s="146"/>
+      <c r="J86" s="146"/>
+      <c r="K86" s="146"/>
+      <c r="L86" s="146"/>
     </row>
     <row r="87" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I87" s="153"/>
-      <c r="J87" s="153"/>
-      <c r="K87" s="153"/>
-      <c r="L87" s="153"/>
+      <c r="I87" s="146"/>
+      <c r="J87" s="146"/>
+      <c r="K87" s="146"/>
+      <c r="L87" s="146"/>
     </row>
     <row r="88" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="154"/>
+      <c r="I88" s="147"/>
+      <c r="J88" s="147"/>
+      <c r="K88" s="147"/>
+      <c r="L88" s="147"/>
     </row>
     <row r="89" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="110" t="s">
@@ -3841,10 +3838,10 @@
       <c r="F89" s="110"/>
       <c r="G89" s="110"/>
       <c r="H89" s="110"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="157"/>
+      <c r="I89" s="150"/>
+      <c r="J89" s="150"/>
+      <c r="K89" s="150"/>
+      <c r="L89" s="150"/>
     </row>
     <row r="90" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="110" t="s">
@@ -3856,10 +3853,10 @@
       <c r="F90" s="110"/>
       <c r="G90" s="110"/>
       <c r="H90" s="110"/>
-      <c r="I90" s="157"/>
-      <c r="J90" s="157"/>
-      <c r="K90" s="157"/>
-      <c r="L90" s="157"/>
+      <c r="I90" s="150"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="150"/>
+      <c r="L90" s="150"/>
     </row>
     <row r="91" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="110" t="s">
@@ -3871,76 +3868,76 @@
       <c r="F91" s="110"/>
       <c r="G91" s="110"/>
       <c r="H91" s="110"/>
-      <c r="I91" s="157"/>
-      <c r="J91" s="157"/>
-      <c r="K91" s="157"/>
-      <c r="L91" s="157"/>
+      <c r="I91" s="150"/>
+      <c r="J91" s="150"/>
+      <c r="K91" s="150"/>
+      <c r="L91" s="150"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
+      <c r="I92" s="147"/>
+      <c r="J92" s="147"/>
+      <c r="K92" s="147"/>
+      <c r="L92" s="147"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="135" t="s">
+      <c r="B93" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="136"/>
-      <c r="D93" s="136"/>
-      <c r="E93" s="136"/>
-      <c r="F93" s="136"/>
-      <c r="G93" s="136"/>
-      <c r="H93" s="136"/>
-      <c r="I93" s="163"/>
-      <c r="J93" s="168"/>
-      <c r="K93" s="163"/>
-      <c r="L93" s="163"/>
-      <c r="M93" s="136"/>
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="161"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="156"/>
+      <c r="M93" s="129"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="136" t="s">
+      <c r="B94" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="136"/>
-      <c r="D94" s="136"/>
-      <c r="E94" s="136"/>
-      <c r="F94" s="136"/>
-      <c r="G94" s="136"/>
-      <c r="H94" s="136"/>
-      <c r="I94" s="163"/>
-      <c r="J94" s="168"/>
-      <c r="K94" s="163"/>
-      <c r="L94" s="163"/>
-      <c r="M94" s="136"/>
+      <c r="C94" s="129"/>
+      <c r="D94" s="129"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="161"/>
+      <c r="K94" s="156"/>
+      <c r="L94" s="156"/>
+      <c r="M94" s="129"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="136" t="s">
+      <c r="B95" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="136"/>
-      <c r="D95" s="136"/>
-      <c r="E95" s="136"/>
-      <c r="F95" s="136"/>
-      <c r="G95" s="136"/>
-      <c r="H95" s="136"/>
-      <c r="I95" s="163"/>
-      <c r="J95" s="168"/>
-      <c r="K95" s="163"/>
-      <c r="L95" s="163"/>
-      <c r="M95" s="136"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="161"/>
+      <c r="K95" s="156"/>
+      <c r="L95" s="156"/>
+      <c r="M95" s="129"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I96" s="154"/>
-      <c r="J96" s="154"/>
-      <c r="K96" s="154"/>
-      <c r="L96" s="154"/>
+      <c r="I96" s="147"/>
+      <c r="J96" s="147"/>
+      <c r="K96" s="147"/>
+      <c r="L96" s="147"/>
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
-      <c r="L97" s="154"/>
+      <c r="I97" s="147"/>
+      <c r="J97" s="147"/>
+      <c r="K97" s="147"/>
+      <c r="L97" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3964,7 +3961,7 @@
   </sheetPr>
   <dimension ref="B2:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -3992,27 +3989,27 @@
   <sheetData>
     <row r="2" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -4344,8 +4341,8 @@
   </sheetPr>
   <dimension ref="B4:AD31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,45 +4377,45 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D4" s="149"/>
+      <c r="D4" s="142"/>
       <c r="F4" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D5" s="148"/>
+      <c r="D5" s="141"/>
       <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="181"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="174"/>
     </row>
     <row r="8" spans="2:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
@@ -4429,21 +4426,21 @@
       <c r="G8"/>
       <c r="H8" s="18"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="2:30" ht="21" thickTop="1" x14ac:dyDescent="0.3">
@@ -4455,21 +4452,21 @@
       <c r="G9" s="22"/>
       <c r="H9" s="18"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="2:30" ht="20.25" x14ac:dyDescent="0.3">
@@ -4481,21 +4478,21 @@
       <c r="G10" s="24"/>
       <c r="H10" s="18"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="100"/>
       <c r="AA10" s="100"/>
@@ -4509,22 +4506,22 @@
       <c r="G11" s="24"/>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="145"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="138"/>
       <c r="Z11" s="80"/>
       <c r="AA11" s="100"/>
     </row>
@@ -4537,52 +4534,52 @@
       <c r="G12" s="24"/>
       <c r="H12" s="18"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="L12" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="123" t="s">
+      <c r="N12" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="123" t="s">
+      <c r="O12" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="123" t="s">
+      <c r="P12" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="125" t="s">
+      <c r="Q12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="123" t="s">
+      <c r="R12" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="123" t="s">
+      <c r="S12" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="126" t="s">
+      <c r="T12" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="123" t="s">
+      <c r="U12" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="V12" s="127" t="s">
+      <c r="V12" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="127" t="s">
+      <c r="W12" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="X12" s="127" t="s">
+      <c r="X12" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="146"/>
+      <c r="Y12" s="139"/>
     </row>
     <row r="13" spans="2:30" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
@@ -4595,80 +4592,80 @@
       <c r="G13" s="24"/>
       <c r="H13" s="18"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="131">
+      <c r="J13" s="124">
         <v>1</v>
       </c>
-      <c r="K13" s="132">
+      <c r="K13" s="125">
         <v>56105075</v>
       </c>
-      <c r="L13" s="133" t="s">
+      <c r="L13" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="133">
+      <c r="M13" s="126">
         <v>22</v>
       </c>
-      <c r="N13" s="131" t="s">
+      <c r="N13" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131" t="s">
+      <c r="O13" s="124"/>
+      <c r="P13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="133" t="s">
+      <c r="Q13" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="134" t="s">
+      <c r="R13" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="131"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="124"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
-      <c r="Y13" s="146"/>
+      <c r="Y13" s="139"/>
     </row>
     <row r="14" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="150"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="24"/>
       <c r="H14" s="18"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="131">
+      <c r="J14" s="124">
         <v>2</v>
       </c>
-      <c r="K14" s="132">
+      <c r="K14" s="125">
         <v>61206330</v>
       </c>
-      <c r="L14" s="133" t="s">
+      <c r="L14" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="133">
+      <c r="M14" s="126">
         <v>22</v>
       </c>
-      <c r="N14" s="131" t="s">
+      <c r="N14" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131" t="s">
+      <c r="O14" s="124"/>
+      <c r="P14" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="133" t="s">
+      <c r="Q14" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="134" t="s">
+      <c r="R14" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="134"/>
-      <c r="T14" s="131"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="124"/>
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
-      <c r="Y14" s="146"/>
+      <c r="Y14" s="139"/>
     </row>
     <row r="15" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
@@ -4698,7 +4695,7 @@
       <c r="V15" s="95"/>
       <c r="W15" s="95"/>
       <c r="X15" s="95"/>
-      <c r="Y15" s="147"/>
+      <c r="Y15" s="140"/>
       <c r="Z15" s="97"/>
       <c r="AA15" s="98"/>
       <c r="AB15" s="98"/>
@@ -4724,28 +4721,28 @@
       <c r="O16" s="100"/>
       <c r="P16" s="100"/>
       <c r="Q16" s="100"/>
-      <c r="R16" s="128" t="s">
+      <c r="R16" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="129" t="s">
+      <c r="S16" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="129" t="s">
+      <c r="T16" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="130" t="s">
+      <c r="U16" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="130" t="s">
+      <c r="V16" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="W16" s="130" t="s">
+      <c r="W16" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="130" t="s">
+      <c r="X16" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="Y16" s="147"/>
+      <c r="Y16" s="140"/>
       <c r="Z16" s="97"/>
       <c r="AA16" s="98"/>
       <c r="AB16" s="98"/>
@@ -4761,8 +4758,8 @@
       <c r="G17" s="24"/>
       <c r="H17" s="18"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
       <c r="L17" s="100"/>
       <c r="M17" s="100"/>
       <c r="N17" s="100"/>
@@ -4793,8 +4790,8 @@
       <c r="G18" s="24"/>
       <c r="H18" s="18"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
       <c r="L18" s="100"/>
       <c r="M18" s="100"/>
       <c r="N18" s="100"/>
@@ -4823,21 +4820,21 @@
       <c r="G19" s="24"/>
       <c r="H19" s="18"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,21 +4846,21 @@
       <c r="G20" s="24"/>
       <c r="H20" s="18"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4879,21 +4876,21 @@
       <c r="G21" s="24"/>
       <c r="H21" s="18"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4907,21 +4904,21 @@
       <c r="G22" s="24"/>
       <c r="H22" s="18"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="143"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4933,21 +4930,21 @@
       <c r="G23" s="24"/>
       <c r="H23" s="18"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4961,21 +4958,21 @@
       <c r="G24" s="24"/>
       <c r="H24" s="18"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
@@ -4987,47 +4984,47 @@
       <c r="G25" s="24"/>
       <c r="H25" s="18"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
       <c r="G26" s="29"/>
       <c r="H26" s="18"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5039,21 +5036,21 @@
       <c r="G27"/>
       <c r="H27" s="18"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -5065,21 +5062,21 @@
       <c r="G28"/>
       <c r="H28" s="18"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,9 +5200,9 @@
     <row r="7" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="16"/>
@@ -5228,9 +5225,9 @@
     <row r="8" spans="2:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="H8" s="18"/>
       <c r="I8" s="16"/>
       <c r="J8" s="54"/>
@@ -5354,11 +5351,11 @@
     </row>
     <row r="11" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="185"/>
-      <c r="E11" s="186"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
       <c r="F11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="16"/>
@@ -5405,11 +5402,11 @@
     </row>
     <row r="13" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="186"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
       <c r="F13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="16"/>
@@ -5427,11 +5424,11 @@
     </row>
     <row r="15" spans="2:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="189"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="182"/>
       <c r="F15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="16"/>
